--- a/UML/UML.xlsx
+++ b/UML/UML.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyanj_ifn59vk\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671AF434-6567-4176-BCE1-FA8FFDD834A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DF0BBC-62FD-42B4-9C46-97A9ADB071E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{CB9D81D0-15AA-4D22-AC31-0AF80160577C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CB9D81D0-15AA-4D22-AC31-0AF80160577C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="UML" sheetId="2" r:id="rId2"/>
+    <sheet name="checkin" sheetId="3" r:id="rId3"/>
+    <sheet name="book" sheetId="4" r:id="rId4"/>
+    <sheet name="room" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -254,8 +256,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3125107" y="133350"/>
-          <a:ext cx="2420257" cy="1406979"/>
+          <a:off x="3116844" y="133350"/>
+          <a:ext cx="2411994" cy="1385840"/>
           <a:chOff x="1968500" y="361950"/>
           <a:chExt cx="2413000" cy="1377950"/>
         </a:xfrm>
@@ -631,8 +633,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="190500" y="2196193"/>
-          <a:ext cx="2418443" cy="1403350"/>
+          <a:off x="190500" y="2169248"/>
+          <a:ext cx="2409071" cy="1387632"/>
           <a:chOff x="1968500" y="361950"/>
           <a:chExt cx="2413000" cy="1377950"/>
         </a:xfrm>
@@ -948,8 +950,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3144157" y="2177143"/>
-          <a:ext cx="2420257" cy="1403350"/>
+          <a:off x="3135894" y="2150198"/>
+          <a:ext cx="2411994" cy="1387632"/>
           <a:chOff x="1968500" y="361950"/>
           <a:chExt cx="2413000" cy="1377950"/>
         </a:xfrm>
@@ -1265,8 +1267,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6252029" y="2196193"/>
-          <a:ext cx="2420257" cy="1403350"/>
+          <a:off x="6236612" y="2169248"/>
+          <a:ext cx="2411994" cy="1387632"/>
           <a:chOff x="1968500" y="361950"/>
           <a:chExt cx="2413000" cy="1377950"/>
         </a:xfrm>
@@ -1750,8 +1752,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="234950" y="213179"/>
-          <a:ext cx="2062843" cy="1295400"/>
+          <a:off x="238125" y="207758"/>
+          <a:ext cx="2056646" cy="1282857"/>
           <a:chOff x="1968500" y="361950"/>
           <a:chExt cx="2413000" cy="1377950"/>
         </a:xfrm>
@@ -2101,8 +2103,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7417707" y="327479"/>
-          <a:ext cx="2062843" cy="1295400"/>
+          <a:off x="7394984" y="322058"/>
+          <a:ext cx="2056645" cy="1282857"/>
           <a:chOff x="1968500" y="361950"/>
           <a:chExt cx="2413000" cy="1377950"/>
         </a:xfrm>
@@ -2597,25 +2599,101 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>402317</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>87993</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="矩形 75">
+        <xdr:cNvPr id="9" name="文本框 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4372A1C6-2B87-446C-ACE3-20DA767EF966}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{741BC189-23A2-4959-B1F8-743FB08E4E9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8477250" y="600075"/>
+          <a:ext cx="468992" cy="211818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>exit</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66222</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>96610</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>45358</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="矩形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94219F99-59FB-4FA1-8C0D-6954C517E61E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2623,8 +2701,539 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="977900" y="4572000"/>
-          <a:ext cx="2870200" cy="4876800"/>
+          <a:off x="7172325" y="2780847"/>
+          <a:ext cx="810985" cy="341086"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>NAME</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>345168</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>351518</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>69397</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA2B8F51-411C-482F-8CA7-467F6DA586B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="24" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7574643" y="2476500"/>
+          <a:ext cx="6350" cy="307522"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>37647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>356281</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>18597</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接箭头连接符 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AD00A88-2309-44D6-B00D-C284E4421DD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="28" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7536996" y="3044826"/>
+          <a:ext cx="3856" cy="1042307"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>18597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>106135</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>178708</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="矩形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E9138F-7F47-40AD-91DB-EFCD9C314537}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7181850" y="4181022"/>
+          <a:ext cx="810985" cy="341086"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>AGE</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>113847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>150585</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="流程图: 决策 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08BDB2BE-DD50-4FC4-B944-85C345639B31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7143750" y="4819197"/>
+          <a:ext cx="893535" cy="448128"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>170997</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>116569</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接箭头连接符 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3460519A-5A1D-4A3A-BDB3-626FA19C7EE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7588250" y="4514397"/>
+          <a:ext cx="3175" cy="307522"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接箭头连接符 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A719FB5F-481D-4CE9-A3CC-9DCAC6A5EA39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7600950" y="5276850"/>
+          <a:ext cx="9525" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>113394</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>79603</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="连接符: 肘形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F4640A-59CF-452D-9B18-C9A0B76C1BBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="1"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="7112000" y="1561194"/>
+          <a:ext cx="38100" cy="690109"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3750000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>163059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="连接符: 肘形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A34CA21D-079E-4BCD-9F98-224C3072EDEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="7143750" y="4352925"/>
+          <a:ext cx="38100" cy="696459"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3750000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12F65F78-BA90-4DDA-88FC-5A6C49077BEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4442732" y="142875"/>
+          <a:ext cx="6217104" cy="7094764"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2665,23 +3274,530 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>306418</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>53974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>470817</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>21317</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="文本框 76">
+        <xdr:cNvPr id="5" name="椭圆 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A543CB20-EB53-49BA-AAEB-E8CF7CEFC267}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E39031-3699-4922-A476-AC77D8231910}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7490989" y="6952795"/>
+          <a:ext cx="164399" cy="144236"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>535235</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>126563</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>65768</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="50" name="组合 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8FE9679-241B-4FD9-A92F-FF2F1718C9D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7066664" y="224518"/>
+          <a:ext cx="894438" cy="6920139"/>
+          <a:chOff x="7066664" y="221343"/>
+          <a:chExt cx="897613" cy="6920139"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="椭圆 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2580646-5D32-4B36-9A5F-24F73C4BE9BD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7451271" y="6898821"/>
+            <a:ext cx="257175" cy="242661"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="椭圆 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9911EE87-D6A4-4218-B7FB-62530EA30270}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7421173" y="221343"/>
+            <a:ext cx="171362" cy="160111"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="矩形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD4D907C-D5AF-45FE-AEFE-8E946CF4D4B2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7114266" y="1358900"/>
+            <a:ext cx="799235" cy="339272"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>TYPE</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="流程图: 决策 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FCE236B-8D1D-40DC-BFC2-16A70B0177BB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7066664" y="632279"/>
+            <a:ext cx="884918" cy="435881"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="8" name="直接箭头连接符 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54A0E26B-A658-4DC7-8438-8E739FF36995}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="3" idx="4"/>
+            <a:endCxn id="7" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="7509123" y="381454"/>
+            <a:ext cx="907" cy="250825"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="10" name="连接符: 肘形 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{962D5EA1-306F-4003-A2A7-CDE78CF48BB1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="7" idx="3"/>
+            <a:endCxn id="4" idx="6"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="7709954" y="849085"/>
+            <a:ext cx="241628" cy="6176283"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -727964"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="14" name="直接箭头连接符 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{907851B8-135F-44AC-B7D9-C2C118974145}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="7" idx="2"/>
+            <a:endCxn id="6" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7509123" y="1068160"/>
+            <a:ext cx="6348" cy="293915"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="流程图: 决策 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDFFBC98-B8F1-4E00-B0AC-D0B434B945F7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7076186" y="1990271"/>
+            <a:ext cx="888091" cy="430439"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="23" name="直接箭头连接符 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E030695-1A7B-40C0-8120-47E97927795F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7510030" y="1693636"/>
+            <a:ext cx="6345" cy="299357"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>40521</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>144002</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14968</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="文本框 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A52BE46C-A1F8-4485-BCA1-C824481FFE8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2689,8 +3805,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1022350" y="4159250"/>
-          <a:ext cx="2139950" cy="355600"/>
+          <a:off x="5918807" y="1943554"/>
+          <a:ext cx="756624" cy="194128"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2725,8 +3841,153 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>受付機能</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>格式有误</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>173717</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>59418</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="文本框 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E59F824-FF76-49AB-A3D0-36482FC27018}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5981700" y="4743450"/>
+          <a:ext cx="764267" cy="202293"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>格式有误</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>169636</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="矩形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69C026E1-D3D2-43F1-9885-4E7F18E95B26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7181850" y="5797550"/>
+          <a:ext cx="990600" cy="344261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>creat object</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2736,23 +3997,83 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>395288</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直接箭头连接符 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{550B02C8-5451-4B8D-B9A2-20F2169EDDE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7616825" y="6153150"/>
+          <a:ext cx="7938" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>30389</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="椭圆 77">
+        <xdr:cNvPr id="2" name="矩形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E4621CA-D716-477E-9CB2-44B67E2B43F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B8CACF-EBC2-4ED9-90DC-484D28B66AB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2760,24 +4081,30 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2228850" y="4679950"/>
-          <a:ext cx="171450" cy="171450"/>
+          <a:off x="3648074" y="171450"/>
+          <a:ext cx="7810501" cy="7097939"/>
         </a:xfrm>
-        <a:prstGeom prst="ellipse">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="accent1">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -2796,23 +4123,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>196148</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>44680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>452564</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>106589</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="椭圆 79">
+        <xdr:cNvPr id="5" name="椭圆 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12533B83-7B42-47AF-BA6F-543017F4BC0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA9C45D-7ACC-4E04-95EB-D2BF723B176D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2820,8 +4147,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2209800" y="8966200"/>
-          <a:ext cx="254000" cy="254000"/>
+          <a:off x="7425623" y="6921730"/>
+          <a:ext cx="256416" cy="242884"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2860,23 +4187,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>166139</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>336995</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>36433</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="椭圆 80">
+        <xdr:cNvPr id="6" name="椭圆 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60834600-6D4E-428E-8B3E-963F9D053F38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3CE5EE7-4444-416D-ABCE-251D9D950DF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2884,8 +4211,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2279650" y="9036050"/>
-          <a:ext cx="114300" cy="114300"/>
+          <a:off x="7395614" y="238125"/>
+          <a:ext cx="170856" cy="160258"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2920,23 +4247,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>332489</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161689</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="矩形 81">
+        <xdr:cNvPr id="7" name="矩形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547D3975-9150-40F8-A7CF-ED6296C5F6E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AA27452-DBEB-4795-930B-8FD3972258C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2944,8 +4271,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1898650" y="5187950"/>
-          <a:ext cx="831850" cy="342900"/>
+          <a:off x="5191125" y="2727231"/>
+          <a:ext cx="1056389" cy="330058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2978,7 +4305,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>NAME</a:t>
+            <a:t>room number</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2988,23 +4315,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>469901</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>106513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>37758</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180844</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="矩形 82">
+        <xdr:cNvPr id="8" name="流程图: 决策 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C9D5F3-99E7-43C8-AC5A-3FAC2F2D81B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFB9FCDC-4F61-4B92-B045-0569CFA5062A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3012,312 +4339,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1905000" y="5873750"/>
-          <a:ext cx="831850" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Age</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="矩形 83">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E731653-CFEF-496D-A843-785839F64C41}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1905000" y="6553200"/>
-          <a:ext cx="831850" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Type</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="85" name="直接箭头连接符 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F060BBD-6CBA-47C9-AC0A-F4EFA73DB32C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="78" idx="4"/>
-          <a:endCxn id="82" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2314575" y="4851400"/>
-          <a:ext cx="0" cy="336550"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>339725</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="88" name="直接箭头连接符 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A4D57F-46EC-4F97-8DEE-CBC64C94A884}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="82" idx="2"/>
-          <a:endCxn id="83" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2314575" y="5530850"/>
-          <a:ext cx="6350" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>339725</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>339725</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="92" name="直接箭头连接符 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB07B372-263D-4BB5-8C92-9F03919743EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="83" idx="2"/>
-          <a:endCxn id="84" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2320925" y="6216650"/>
-          <a:ext cx="0" cy="336550"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="流程图: 决策 98">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F8B482F-2A18-4FBC-A2A5-8FBE71E6D426}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1841500" y="8108950"/>
-          <a:ext cx="914400" cy="444500"/>
+          <a:off x="7042151" y="649438"/>
+          <a:ext cx="882307" cy="436281"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -3358,32 +4381,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>253829</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>36433</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254733</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>106513</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="100" name="直接箭头连接符 99">
+        <xdr:cNvPr id="9" name="直接箭头连接符 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A77B2C51-2CB4-4FEF-8402-81174101845E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41C3D89-50E0-449F-A211-EEC720526135}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="4"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2317750" y="8553450"/>
-          <a:ext cx="6350" cy="438150"/>
+          <a:off x="7483304" y="398383"/>
+          <a:ext cx="904" cy="251055"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3411,744 +4437,40 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>454067</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>37757</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171343</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="103" name="直接箭头连接符 102">
+        <xdr:cNvPr id="10" name="连接符: 肘形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD00CBDD-7AE5-46C9-B9D8-6F9DC6543296}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F316C4D-250C-44E4-8621-AED3F7E5A53C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="113" idx="2"/>
-          <a:endCxn id="99" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2298700" y="7689850"/>
-          <a:ext cx="0" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="107" name="连接符: 肘形 106">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4067461-DA64-4012-9D08-5146681682E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="99" idx="3"/>
-          <a:endCxn id="82" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2730500" y="5359400"/>
-          <a:ext cx="25400" cy="2971800"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -900000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="文本框 108">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60266DA4-DD32-4BC8-8E9A-EF66DC42F9D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2495550" y="8610600"/>
-          <a:ext cx="476250" cy="215900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>exit</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="文本框 109">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C028BE-5D7D-4FEC-A197-D0353F85F5A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3155950" y="6210300"/>
-          <a:ext cx="476250" cy="615950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>exit</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>以外</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="矩形 112">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2266EB8C-238D-4F2B-9C6A-0DCE8A4BA389}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1879600" y="7251700"/>
-          <a:ext cx="838200" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="700"/>
-            <a:t>オブジェクト</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="700"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="700"/>
-            <a:t>生成</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="117" name="直接箭头连接符 116">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B40A6990-3B43-41BB-9E85-151AB86122B9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="113" idx="0"/>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="5" idx="6"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2298700" y="6902450"/>
-          <a:ext cx="12700" cy="349250"/>
+          <a:off x="7683542" y="866443"/>
+          <a:ext cx="240915" cy="6181950"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="122" name="矩形 121">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAA83467-2C78-450F-B3EB-DE795725E9E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4959350" y="4578350"/>
-          <a:ext cx="2870200" cy="4876800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="124" name="文本框 123">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{942BAECA-9DF1-4C65-B4F5-0A070223DCF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4940300" y="4114800"/>
-          <a:ext cx="2139950" cy="355600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>空室検査機能</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="椭圆 124">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B0A0E2-5E93-4FF8-9337-9AC8F642F3B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6286500" y="4679950"/>
-          <a:ext cx="171450" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="矩形 125">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9758DE21-9021-4F2E-89EC-5C5B5BACF022}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5962650" y="5162550"/>
-          <a:ext cx="831850" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>部屋番号</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="127" name="直接箭头连接符 126">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B3483CA-DE06-4144-B937-2F3BD730078D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6375400" y="4838700"/>
-          <a:ext cx="0" cy="336550"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="128" name="直接箭头连接符 127">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1648B9E7-BAB5-4BD7-8633-AD4BB3BB8875}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6375400" y="5499100"/>
-          <a:ext cx="6350" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -1170658"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
           <a:tailEnd type="triangle"/>
@@ -4174,22 +4496,77 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:colOff>578738</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>122170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A39E1D0F-D91D-4F16-A15C-825EC0FA19B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5836538" y="2112895"/>
+          <a:ext cx="11812" cy="601730"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:colOff>479395</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>50415</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>77310</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="流程图: 决策 129">
+        <xdr:cNvPr id="12" name="流程图: 决策 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0697F36E-683E-4B10-8475-B483B38EC1D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4587255-D389-4C14-8597-90CCAA186412}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4197,8 +4574,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5924550" y="5848350"/>
-          <a:ext cx="914400" cy="444500"/>
+          <a:off x="7051645" y="1456226"/>
+          <a:ext cx="885470" cy="430834"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -4239,40 +4616,37 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>253830</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180844</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>260351</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10083</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="131" name="连接符: 肘形 130">
+        <xdr:cNvPr id="13" name="直接箭头连接符 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F281A8A-482E-4E2E-84DD-21FDB31CB1C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5078DFC-D448-4D5B-83DD-1271CA3F98DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="130" idx="3"/>
+          <a:stCxn id="8" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6807200" y="5302250"/>
-          <a:ext cx="31750" cy="768350"/>
+        <a:xfrm>
+          <a:off x="7483305" y="1085719"/>
+          <a:ext cx="6521" cy="372164"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -1120000"/>
-            <a:gd name="adj2" fmla="val 100000"/>
-          </a:avLst>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050">
           <a:tailEnd type="triangle"/>
@@ -4297,149 +4671,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>74533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="136" name="直接箭头连接符 135">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE50114-866F-4E3B-80C3-7B4EB55E5BFB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6381750" y="6280150"/>
-          <a:ext cx="12700" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>38906</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="138" name="椭圆 137">
+        <xdr:cNvPr id="14" name="椭圆 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA9BFCC9-59C0-456B-98E1-54DA599DED9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8905718B-114B-4103-903E-6CB25EA45774}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6286500" y="6762750"/>
-          <a:ext cx="254000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="椭圆 138">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D72192BC-E0E4-47CF-B8C0-08FB2EBC9FA7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6356350" y="6832600"/>
-          <a:ext cx="114300" cy="114300"/>
+        <a:xfrm flipV="1">
+          <a:off x="7458075" y="6951583"/>
+          <a:ext cx="152400" cy="145348"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4474,23 +4731,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>315685</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>26760</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="140" name="文本框 139">
+        <xdr:cNvPr id="16" name="文本框 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C2109F-58D8-4853-955B-061610A54CD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D68158A-7944-4457-9CFC-6E12D984C171}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4498,8 +4755,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6483350" y="6343650"/>
-          <a:ext cx="476250" cy="215900"/>
+          <a:off x="8391525" y="542925"/>
+          <a:ext cx="468085" cy="207735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4534,8 +4791,8 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>空</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>exit</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -4545,23 +4802,182 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>263318</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>77310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接连接符 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FE8C674-6C4A-4EE8-AD6C-9C959A6DB928}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7492793" y="1887060"/>
+          <a:ext cx="3382" cy="227490"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接连接符 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D370A2A6-6A12-4C83-85D2-B7E0DFAF5D56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5838825" y="2101850"/>
+          <a:ext cx="3438525" cy="31750"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>97537</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接箭头连接符 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E739FEA4-5D13-4C62-AE32-CA5C39F37D33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9277350" y="2114550"/>
+          <a:ext cx="21337" cy="582680"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>220435</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="文本框 140">
+        <xdr:cNvPr id="34" name="文本框 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F5F2CC-6086-4006-8601-F948E105A31E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E145371-47E8-44C1-8C62-DE94FE754B07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4569,8 +4985,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7245350" y="5524500"/>
-          <a:ext cx="476250" cy="603250"/>
+          <a:off x="6048375" y="1768474"/>
+          <a:ext cx="744310" cy="212725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4605,16 +5021,11 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>空</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>cancel</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>以外</a:t>
-          </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -4623,23 +5034,96 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>487135</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="142" name="矩形 141">
+        <xdr:cNvPr id="36" name="文本框 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99ED1387-1E4D-49F3-848B-37D3C9D42A88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E2A701-0B51-46EE-B957-C6C1EEB07D4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8286750" y="1781175"/>
+          <a:ext cx="744310" cy="206375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>book</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>364770</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>65709</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="流程图: 决策 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB073178-FB8A-422C-93DE-6F71FD8A828F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4647,10 +5131,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8672286" y="4675414"/>
-          <a:ext cx="3093357" cy="4978400"/>
+          <a:off x="5397500" y="3435350"/>
+          <a:ext cx="882295" cy="430834"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -4689,23 +5173,134 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571671</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>168964</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直接箭头连接符 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1AA2418-D9A2-48A7-A3C3-C4165363ABBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829300" y="3057525"/>
+          <a:ext cx="171" cy="368989"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>34442</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="连接符: 肘形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A005E90-3FDD-409F-9040-D57E1C30DE52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="1"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5191125" y="2892260"/>
+          <a:ext cx="209550" cy="761682"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 518322"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>58124</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114753</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="143" name="文本框 142">
+        <xdr:cNvPr id="43" name="文本框 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E882E9-218D-4C38-8C1F-1F3E259E9FF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA283F48-AD94-4C25-B7DD-E167DDB76726}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4713,8 +5308,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8731250" y="4076700"/>
-          <a:ext cx="2139950" cy="355600"/>
+          <a:off x="4562475" y="3362325"/>
+          <a:ext cx="753449" cy="190953"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4749,9 +5344,11 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>予約機能</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>null</a:t>
           </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -4760,23 +5357,76 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600246</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>73714</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直接箭头连接符 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A398A8AF-B141-4E7A-AAE1-3251AD1E84B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857875" y="3867150"/>
+          <a:ext cx="171" cy="368989"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>389639</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="144" name="椭圆 143">
+        <xdr:cNvPr id="45" name="矩形 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A71022-D8C1-4FCB-8D6B-44E0A58098DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB0A8F53-4CF0-4FF4-9C97-54738743E2C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4784,68 +5434,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9950450" y="4699000"/>
-          <a:ext cx="171450" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="145" name="矩形 144">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{751E3E19-457B-45D5-8491-283C9F526AF3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9620250" y="5080000"/>
-          <a:ext cx="831850" cy="342900"/>
+          <a:off x="5248275" y="4257675"/>
+          <a:ext cx="1056389" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4878,7 +5468,14 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>NAME</a:t>
+            <a:t>room number</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>value=null</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -4888,36 +5485,37 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>520256</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>130175</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>199322</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>166122</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="146" name="直接箭头连接符 145">
+        <xdr:cNvPr id="47" name="连接符: 肘形 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4545D4F8-7483-4D9A-B1B9-4F586339DE6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B218976E-8C13-4C87-A7ED-F1970CD9190B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="145" idx="0"/>
+          <a:stCxn id="45" idx="2"/>
+          <a:endCxn id="5" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10033000" y="4851400"/>
-          <a:ext cx="3175" cy="228600"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5491666" y="5106040"/>
+          <a:ext cx="2223522" cy="1650741"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050">
@@ -4943,23 +5541,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>630939</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>145908</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="148" name="矩形 147">
+        <xdr:cNvPr id="50" name="矩形 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF149BDF-C4A4-4272-8A5A-7CA605B7DC41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{607E3C62-D37B-4626-964F-11C118CD104F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4967,8 +5565,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9620250" y="5651500"/>
-          <a:ext cx="831850" cy="342900"/>
+          <a:off x="8772525" y="2705100"/>
+          <a:ext cx="1059564" cy="336408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5001,7 +5599,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Age</a:t>
+            <a:t>room number</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -5011,76 +5609,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="149" name="直接箭头连接符 148">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25DA7CCC-5351-4306-8564-DAAC97129B3B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10026650" y="5429250"/>
-          <a:ext cx="3175" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>564795</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>30784</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="150" name="矩形 149">
+        <xdr:cNvPr id="51" name="流程图: 决策 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E573C79-2449-4FAA-820C-F873B51CD75A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE5EA7F-5B3F-4AA2-904A-EBC502DEA8A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5088,427 +5633,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9632950" y="6248400"/>
-          <a:ext cx="831850" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Type</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="151" name="直接箭头连接符 150">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3846D0C-C3D6-4BA4-AC2A-00BDDB12EE6B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10026650" y="6013450"/>
-          <a:ext cx="3175" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="152" name="矩形 151">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D12ABDC7-7991-47A6-AF2E-9944FDC14BA4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9613900" y="6819900"/>
-          <a:ext cx="831850" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>日期</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>130175</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="153" name="直接箭头连接符 152">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E0F653-2F7E-45D9-AA8C-E4AD01BF0A92}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10033000" y="6584950"/>
-          <a:ext cx="3175" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>98425</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="155" name="直接箭头连接符 154">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{701A38F3-B301-43D2-8F10-CFB6DB8BCB22}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10001250" y="7169150"/>
-          <a:ext cx="3175" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="156" name="椭圆 155">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC13968-05A1-4C10-9019-2C5B4E929F9A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10013950" y="8877300"/>
-          <a:ext cx="114300" cy="114300"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="157" name="椭圆 156">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87B14D26-A893-4C0B-9C92-F2F3192700E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9950450" y="8813800"/>
-          <a:ext cx="254000" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="158" name="流程图: 决策 157">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F64EE41A-656E-46E1-8348-AA0D04D88B71}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9588500" y="7912100"/>
-          <a:ext cx="914400" cy="444500"/>
+          <a:off x="8886825" y="3397250"/>
+          <a:ext cx="879120" cy="434009"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -5550,90 +5676,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="159" name="矩形 158">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{407EC4C0-F655-49DF-95AA-F6FCAE334E5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9613900" y="7391400"/>
-          <a:ext cx="831850" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>部屋番号</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133521</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>168964</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="160" name="直接箭头连接符 159">
+        <xdr:cNvPr id="52" name="直接箭头连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDC3BBB7-2148-4F24-A267-A05B5A2005A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC7BA1F5-2151-49EF-A509-2F2A1EE0CEEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5641,8 +5699,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10039350" y="7721600"/>
-          <a:ext cx="3175" cy="228600"/>
+          <a:off x="9334500" y="3057525"/>
+          <a:ext cx="171" cy="368989"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5670,40 +5728,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123996</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>35614</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="161" name="连接符: 肘形 160">
+        <xdr:cNvPr id="53" name="直接箭头连接符 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D8B03A5-8253-4046-A254-1D794E212741}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F730BE89-476F-4DC9-AECC-DFD83B6593AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="158" idx="3"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="10483850" y="7493000"/>
-          <a:ext cx="19050" cy="641350"/>
+        <a:xfrm>
+          <a:off x="9324975" y="3829050"/>
+          <a:ext cx="171" cy="368989"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -2700000"/>
-            <a:gd name="adj2" fmla="val 100000"/>
-          </a:avLst>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050">
           <a:tailEnd type="triangle"/>
@@ -5728,35 +5781,40 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>157092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171132</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="166" name="直接箭头连接符 165">
+        <xdr:cNvPr id="54" name="连接符: 肘形 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4421F593-CE0D-4B97-9CD0-694AFB02CDC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2DC7810-E25E-4EC4-BB17-4638558D8905}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="50" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10039350" y="8350250"/>
-          <a:ext cx="12700" cy="457200"/>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="8465468" y="3178774"/>
+          <a:ext cx="737940" cy="123826"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -179"/>
+            <a:gd name="adj2" fmla="val 489876"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
           <a:tailEnd type="triangle"/>
@@ -5781,89 +5839,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>324824</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>124278</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="矩形 107">
+        <xdr:cNvPr id="58" name="文本框 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F102DD5-2030-4844-9288-06707EE5BF4E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11982450" y="4578350"/>
-          <a:ext cx="2870200" cy="4876800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="文本框 110">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38639486-EAA9-401A-A9F2-DD8E50FB432C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EFDA191-5D44-4758-A0B5-072F4FB877BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5871,8 +5863,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12110357" y="4172857"/>
-          <a:ext cx="2145393" cy="362857"/>
+          <a:off x="9420225" y="3911600"/>
+          <a:ext cx="762974" cy="194128"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5907,9 +5899,11 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>予約キャンセル</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>null</a:t>
           </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -5918,23 +5912,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>90714</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>90713</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>262164</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>84363</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>49914</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28433</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="椭圆 111">
+        <xdr:cNvPr id="59" name="矩形 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B4073D-E1AE-49F6-90F2-948AD983E1E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C0A4002-6A9C-4762-9179-576B7882CF9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5942,68 +5936,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13335000" y="4807856"/>
-          <a:ext cx="171450" cy="175078"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>426358</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>72572</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>597807</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>78015</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="矩形 115">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BFC0D6C-0ADD-4E2A-8919-6E93E694A1F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13008429" y="5334001"/>
-          <a:ext cx="833664" cy="368300"/>
+          <a:off x="8848725" y="4219575"/>
+          <a:ext cx="1059564" cy="333233"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6035,8 +5969,8 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>部屋番号</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>name</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -6046,214 +5980,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>176439</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>84363</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>324356</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>31609</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>72572</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>175770</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47856</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="118" name="直接箭头连接符 117">
+        <xdr:cNvPr id="63" name="连接符: 肘形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DD13621-24A4-4D4B-A76D-16D7EFF58E90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91EA0A17-A39A-41B8-8059-DAD26101A152}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="112" idx="4"/>
-          <a:endCxn id="116" idx="0"/>
+          <a:stCxn id="59" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13420725" y="4982934"/>
-          <a:ext cx="4536" cy="351067"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>199570</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>99786</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>204106</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>87996</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="121" name="直接箭头连接符 120">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD235F18-8C3C-4452-97B4-4EC7C0951E25}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13443856" y="5724072"/>
-          <a:ext cx="4536" cy="351067"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>417286</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>9071</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>174171</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="流程图: 决策 122">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F4E1719-7567-4C9D-8778-BDE8CCB39154}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12999357" y="6068785"/>
-          <a:ext cx="916214" cy="455386"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>597807</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>75294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>9071</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>127907</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="129" name="连接符: 肘形 128">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E98F975-E5BE-4479-BCDC-712D337CD989}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="123" idx="3"/>
-          <a:endCxn id="116" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="13842093" y="5518151"/>
-          <a:ext cx="73478" cy="778327"/>
+        <a:xfrm rot="5400000">
+          <a:off x="7280915" y="4828900"/>
+          <a:ext cx="2368922" cy="1823089"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -743216"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
@@ -6275,546 +6034,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>199572</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>204108</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>169639</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="132" name="直接箭头连接符 131">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D7B8D22-C062-4BA9-9972-2D966AC95ACA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13443858" y="6531429"/>
-          <a:ext cx="4536" cy="351067"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>18143</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>117929</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>496207</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="133" name="文本框 132">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E710359-1A2A-4380-A7C2-A4BAA297086A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13924643" y="5560786"/>
-          <a:ext cx="478064" cy="671286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>入力ミス</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>498929</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>172357</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>8164</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>108858</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="135" name="矩形 134">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3118E852-70CF-47D6-A888-F3C28F4F224D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13081000" y="6885214"/>
-          <a:ext cx="833664" cy="843644"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>内容清零</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>NAME=""</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>AGE=0</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>TYPE=""</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>226786</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>117929</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>231322</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>106139</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="137" name="直接箭头连接符 136">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7899EFF2-6E5D-42AC-9A0E-86CDA44F0B57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13471072" y="7737929"/>
-          <a:ext cx="4536" cy="351067"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>126998</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>117929</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>380998</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>16329</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="147" name="椭圆 146">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21585588-E102-4BD2-B40F-4C871C497E23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13371284" y="8100786"/>
-          <a:ext cx="254000" cy="261257"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>177798</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>172359</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>308427</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>127002</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="154" name="椭圆 153">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C2D0D0A-6ADE-48F3-8741-B30BA28E28CF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="13422084" y="8155216"/>
-          <a:ext cx="130629" cy="136072"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>235858</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>63499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>51707</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="163" name="文本框 162">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97D5C97-9978-4092-9740-906ECA8E898F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10169072" y="8590642"/>
-          <a:ext cx="478064" cy="219529"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>空</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>498928</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>314778</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>97063</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="164" name="文本框 163">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F521178C-7952-4E4C-BB81-077CEE087CB4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11094357" y="7647214"/>
-          <a:ext cx="478064" cy="614135"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>空</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>以外</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7231,8 +6450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C977C808-C6C7-4E20-84D8-0A8F90E60EC1}">
   <dimension ref="B21:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView showGridLines="0" zoomScale="101" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7253,4 +6472,51 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7323AEED-064A-4FE9-A4C0-8E93714C3CC1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5791EF-8320-49C3-B84D-B670282E476A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C21C9C-19B9-48C4-8F0F-F7DE7AB2BF27}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>